--- a/branches/may/StructureDefinition-CD.xlsx
+++ b/branches/may/StructureDefinition-CD.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-07T09:01:04+00:00</t>
+    <t>2024-05-07T09:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/may/StructureDefinition-CD.xlsx
+++ b/branches/may/StructureDefinition-CD.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-07T09:20:42+00:00</t>
+    <t>2024-05-07T13:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
